--- a/DOC/単体テスト/EMSM_単体テストエビデンス_-社員情報更新.xlsx
+++ b/DOC/単体テスト/EMSM_単体テストエビデンス_-社員情報更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC3432C-A8AE-46D0-B05B-6AB70E7BD0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No.1更新画面遷移" sheetId="10" r:id="rId14"/>
@@ -24,6 +24,8 @@
     <sheet name="No.9住所" sheetId="39" r:id="rId13"/>
     <sheet name="No.10電話番号" sheetId="40" r:id="rId15"/>
     <sheet name="No.11メール" sheetId="41" r:id="rId19"/>
+    <sheet name="No.12DB更新" sheetId="42" r:id="rId20"/>
+    <sheet name="No.13DB新規" sheetId="43" r:id="rId21"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -1540,6 +1542,118 @@
   <si>
     <t>No.3社員氏名</t>
   </si>
+  <si>
+    <t>画面リストから更新ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>更新画面が表示されて画面リストの選択された社長ID 値表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>更新の時生年月日が空想の場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+　</t>
+  </si>
+  <si>
+    <t>更新の時年齢が空想の場合"年齢を入力してください。"　</t>
+  </si>
+  <si>
+    <t>"年齢に数字のみを入力してください。"のエラーメッセージが出ます</t>
+  </si>
+  <si>
+    <t>No.12DB更新</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>epType</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>joinedDate</t>
+  </si>
+  <si>
+    <t>joinedTime</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>mailAdress</t>
+  </si>
+  <si>
+    <t>insertDate</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>E003</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>テスト前</t>
+  </si>
+  <si>
+    <t>テスト実施</t>
+  </si>
+  <si>
+    <t>登録ボタンクリックすると画面データをDBへ登録する</t>
+  </si>
+  <si>
+    <t>No.13DB新規</t>
+  </si>
+  <si>
+    <t>テスト後</t>
+  </si>
+  <si>
+    <t>新規追加ボタンをクリック</t>
+  </si>
+  <si>
+    <t>登録ボタンクリックすると画面データをDB へ新規登録する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+更新の時生年月日が空想の場合
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1548,7 +1662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1794,8 +1908,23 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1808,8 +1937,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB3E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -2308,6 +2453,13 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2324,7 +2476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3578,6 +3730,125 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="38" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="3" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="3" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="6" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="6" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="6" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="6" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3606,12 +3877,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="13020675" cy="3181350"/>
+    <xdr:ext cx="5695950" cy="1400175"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -3628,8 +3899,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="571500"/>
-          <a:ext cx="13020675" cy="3181350"/>
+          <a:off x="247650" y="581025"/>
+          <a:ext cx="5695950" cy="1400175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3640,12 +3911,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5105400" cy="4772025"/>
+    <xdr:ext cx="3419475" cy="3190875"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name=""/>
@@ -3662,8 +3933,42 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="4381500"/>
-          <a:ext cx="5105400" cy="4772025"/>
+          <a:off x="161925" y="4248150"/>
+          <a:ext cx="3419475" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7562850" cy="1343025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="2333625"/>
+          <a:ext cx="7562850" cy="1343025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3684,7 +3989,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6457950" cy="6296025"/>
+    <xdr:ext cx="3619500" cy="3524250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -3702,7 +4007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="800100"/>
-          <a:ext cx="6457950" cy="6296025"/>
+          <a:ext cx="3619500" cy="3524250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3714,11 +4019,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5543550" cy="6248400"/>
+    <xdr:ext cx="3171825" cy="3581400"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name=""/>
@@ -3735,8 +4040,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="7858125"/>
-          <a:ext cx="5543550" cy="6248400"/>
+          <a:off x="676275" y="4943475"/>
+          <a:ext cx="3171825" cy="3581400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3757,7 +4062,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6724650" cy="6619875"/>
+    <xdr:ext cx="3438525" cy="3390900"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -3775,7 +4080,255 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="714375" y="571500"/>
-          <a:ext cx="6724650" cy="6619875"/>
+          <a:ext cx="3438525" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6591300" cy="1257300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="561975"/>
+          <a:ext cx="6591300" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3429000" cy="3676650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2276475"/>
+          <a:ext cx="3429000" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7105650" cy="1466850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="6896100"/>
+          <a:ext cx="7105650" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5895975" cy="1476375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="571500"/>
+          <a:ext cx="5895975" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7562850" cy="1343025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="2486025"/>
+          <a:ext cx="7562850" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3438525" cy="3762375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="4333875"/>
+          <a:ext cx="3438525" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6534150" cy="1323975"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="8620125"/>
+          <a:ext cx="6534150" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3792,11 +4345,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6457950" cy="6391275"/>
+    <xdr:ext cx="4133850" cy="4076700"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -3813,8 +4366,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="1000125"/>
-          <a:ext cx="6457950" cy="6391275"/>
+          <a:off x="666750" y="752475"/>
+          <a:ext cx="4133850" cy="4076700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3827,10 +4380,10 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6019800" cy="6429375"/>
+    <xdr:ext cx="4067175" cy="4343400"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name=""/>
@@ -3847,8 +4400,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="8220075"/>
-          <a:ext cx="6019800" cy="6429375"/>
+          <a:off x="695325" y="5572125"/>
+          <a:ext cx="4067175" cy="4343400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3869,7 +4422,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6419850" cy="6257925"/>
+    <xdr:ext cx="3581400" cy="3495675"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -3887,7 +4440,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="695325" y="981075"/>
-          <a:ext cx="6419850" cy="6257925"/>
+          <a:ext cx="3581400" cy="3495675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3899,11 +4452,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6010275" cy="6696075"/>
+    <xdr:ext cx="3552825" cy="3962400"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name=""/>
@@ -3920,8 +4473,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="8010525"/>
-          <a:ext cx="6010275" cy="6696075"/>
+          <a:off x="685800" y="5200650"/>
+          <a:ext cx="3552825" cy="3962400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3935,72 +4488,14 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="12887325" y="3495675"/>
-          <a:ext cx="428625" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4619625" cy="5076825"/>
+    <xdr:ext cx="3181350" cy="3495675"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name=""/>
@@ -4017,8 +4512,42 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="800100"/>
-          <a:ext cx="4619625" cy="5076825"/>
+          <a:off x="114300" y="2857500"/>
+          <a:ext cx="3181350" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6238875" cy="1676400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="590550"/>
+          <a:ext cx="6238875" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4034,12 +4563,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10896600" cy="7000875"/>
+    <xdr:ext cx="5524500" cy="3543300"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -4056,8 +4585,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="762000"/>
-          <a:ext cx="10896600" cy="7000875"/>
+          <a:off x="171450" y="561975"/>
+          <a:ext cx="5524500" cy="3543300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4073,12 +4602,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7267575" cy="6562725"/>
+    <xdr:ext cx="3181350" cy="2867025"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -4095,8 +4624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="609600"/>
-          <a:ext cx="7267575" cy="6562725"/>
+          <a:off x="695325" y="600075"/>
+          <a:ext cx="3181350" cy="2867025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4117,7 +4646,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="11563350" cy="6448425"/>
+    <xdr:ext cx="4619625" cy="2571750"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -4134,8 +4663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="952500"/>
-          <a:ext cx="11563350" cy="6448425"/>
+          <a:off x="685800" y="1009650"/>
+          <a:ext cx="4619625" cy="2571750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4147,11 +4676,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4371975" cy="5219700"/>
+    <xdr:ext cx="2924175" cy="3495675"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name=""/>
@@ -4168,8 +4697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="8001000"/>
-          <a:ext cx="4371975" cy="5219700"/>
+          <a:off x="695325" y="4286250"/>
+          <a:ext cx="2924175" cy="3495675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4190,7 +4719,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="11934825" cy="7058025"/>
+    <xdr:ext cx="5095875" cy="3009900"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -4208,7 +4737,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="762000"/>
-          <a:ext cx="11934825" cy="7058025"/>
+          <a:ext cx="5095875" cy="3009900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4263,7 +4792,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="11515725" cy="6724650"/>
+    <xdr:ext cx="6086475" cy="3552825"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -4281,7 +4810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="762000"/>
-          <a:ext cx="11515725" cy="6724650"/>
+          <a:ext cx="6086475" cy="3552825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4684,8 +5213,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="L25" activeCellId="0" sqref="L25"/>
+    <sheetView workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="M32" activeCellId="0" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4696,12 +5225,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>225</v>
       </c>
     </row>
+    <row r="11" customHeight="1" ht="16"/>
     <row r="22">
-      <c r="B22" t="s">
+      <c r="A22" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4755,7 +5285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="P13" activeCellId="0" sqref="P13"/>
+      <selection activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4776,11 +5306,141 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A22">
+      <selection activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" ht="13">
+      <c r="B3" s="462"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="463"/>
+      <c r="E3" s="463"/>
+      <c r="F3" s="463"/>
+      <c r="G3" s="463"/>
+      <c r="H3" s="463"/>
+      <c r="I3" s="463"/>
+      <c r="J3" s="463"/>
+      <c r="K3" s="463"/>
+      <c r="L3" s="463"/>
+      <c r="M3" s="463"/>
+      <c r="N3" s="463"/>
+      <c r="O3" s="463"/>
+      <c r="P3" s="463"/>
+      <c r="Q3" s="463"/>
+      <c r="R3" s="463"/>
+    </row>
+    <row r="4" customHeight="1" ht="15">
+      <c r="B4" s="464"/>
+      <c r="C4" s="464"/>
+      <c r="D4" s="465"/>
+      <c r="E4" s="466"/>
+      <c r="F4" s="467"/>
+      <c r="G4" s="464"/>
+      <c r="H4" s="464"/>
+      <c r="I4" s="464"/>
+      <c r="J4" s="464"/>
+      <c r="K4" s="464"/>
+      <c r="L4" s="464"/>
+      <c r="M4" s="464"/>
+      <c r="N4" s="464"/>
+      <c r="O4" s="464"/>
+      <c r="P4" s="464"/>
+      <c r="Q4" s="464"/>
+      <c r="R4" s="464"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A43">
+      <selection activeCell="M61" activeCellId="0" sqref="M61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="K48" activeCellId="0" sqref="K48"/>
+      <selection activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4800,8 +5460,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" t="s">
+    <row r="28">
+      <c r="B28" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4815,7 +5475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B43" activeCellId="0" sqref="B43"/>
+      <selection activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4835,8 +5495,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" t="s">
+    <row r="26">
+      <c r="B26" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4850,7 +5510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4860,8 +5520,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4900,7 +5560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="H33" activeCellId="0" sqref="H33"/>
+      <selection activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4910,9 +5570,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="0" t="s">
-        <v>258</v>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4925,7 +5590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="N69" activeCellId="0" sqref="N69"/>
+      <selection activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4945,8 +5610,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" t="s">
+    <row r="25">
+      <c r="B25" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4960,7 +5625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4970,10 +5635,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="s">
-        <v>209</v>
+    <row r="2" customHeight="1" ht="19">
+      <c r="A2" s="443"/>
+      <c r="B2" s="468" t="s">
+        <v>295</v>
       </c>
+      <c r="E2" s="437"/>
     </row>
     <row r="3">
       <c r="B3" t="s">
@@ -4985,8 +5652,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5000,7 +5667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
